--- a/data_year/zb/农业/瓜果类单位面积产量.xlsx
+++ b/data_year/zb/农业/瓜果类单位面积产量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,340 +458,171 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30178.8298731944</v>
+        <v>35066.6365814684</v>
       </c>
       <c r="C2" t="n">
-        <v>22506.8116166071</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>30631.4864774835</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25445.5283246671</v>
+      </c>
       <c r="E2" t="n">
-        <v>31376.3100508489</v>
+        <v>36919.1507684817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31520.0516708112</v>
+        <v>35515.5750918159</v>
       </c>
       <c r="C3" t="n">
-        <v>23574.2233422484</v>
+        <v>31446.4557248026</v>
       </c>
       <c r="D3" t="n">
-        <v>21010.2023596064</v>
+        <v>25710.7532929351</v>
       </c>
       <c r="E3" t="n">
-        <v>33875.9543598391</v>
+        <v>37380.5961698042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29592.1348362339</v>
+        <v>36603.876876803</v>
       </c>
       <c r="C4" t="n">
-        <v>23193.212472752</v>
+        <v>32048.4651876412</v>
       </c>
       <c r="D4" t="n">
-        <v>22090.4655550014</v>
+        <v>26893.0589907511</v>
       </c>
       <c r="E4" t="n">
-        <v>31587.077127058</v>
+        <v>38632.1039082999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32359.2041083655</v>
+        <v>37121.8805813681</v>
       </c>
       <c r="C5" t="n">
-        <v>25246.7878878954</v>
+        <v>33380.693355217</v>
       </c>
       <c r="D5" t="n">
-        <v>22426.2115069022</v>
+        <v>26475.3661393902</v>
       </c>
       <c r="E5" t="n">
-        <v>34646.9095717285</v>
+        <v>38992.7470745452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32995.7100691196</v>
+        <v>37558.624346386</v>
       </c>
       <c r="C6" t="n">
-        <v>26039.2396286851</v>
+        <v>32992.302362083</v>
       </c>
       <c r="D6" t="n">
-        <v>23244.3494761413</v>
+        <v>26224.2582513097</v>
       </c>
       <c r="E6" t="n">
-        <v>35077.1267015443</v>
+        <v>39617.2275523856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33405.7089047604</v>
+        <v>37933.0392454836</v>
       </c>
       <c r="C7" t="n">
-        <v>27439.9136446895</v>
+        <v>32351.9455280966</v>
       </c>
       <c r="D7" t="n">
-        <v>23649.4284791354</v>
+        <v>25893.817337943</v>
       </c>
       <c r="E7" t="n">
-        <v>35287.4542710725</v>
+        <v>40465.0819189428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33733.6911305127</v>
+        <v>38706.7016490743</v>
       </c>
       <c r="C8" t="n">
-        <v>29115.6327421994</v>
+        <v>34331.6528513914</v>
       </c>
       <c r="D8" t="n">
-        <v>23913.2361103805</v>
+        <v>26177.0606746299</v>
       </c>
       <c r="E8" t="n">
-        <v>35578.7769088684</v>
+        <v>41058.6827757951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34454.4847965851</v>
+        <v>39247.6828701833</v>
       </c>
       <c r="C9" t="n">
-        <v>31682.5131764016</v>
+        <v>35337.444435664</v>
       </c>
       <c r="D9" t="n">
-        <v>24233.2860929424</v>
+        <v>26456.0489842756</v>
       </c>
       <c r="E9" t="n">
-        <v>35995.9403103729</v>
+        <v>41551.9646099424</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34820.0991432304</v>
+        <v>38367.0847689626</v>
       </c>
       <c r="C10" t="n">
-        <v>31646.330457431</v>
+        <v>34986.6131487154</v>
       </c>
       <c r="D10" t="n">
-        <v>24594.4241995041</v>
+        <v>25509.0161174254</v>
       </c>
       <c r="E10" t="n">
-        <v>36573.9422792762</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>35066.6365814684</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30631.4864774835</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25445.5283246671</v>
-      </c>
-      <c r="E11" t="n">
-        <v>36919.1507684817</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>35515.5750918159</v>
-      </c>
-      <c r="C12" t="n">
-        <v>31446.4557248026</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25710.7532929351</v>
-      </c>
-      <c r="E12" t="n">
-        <v>37380.5961698042</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>36603.876876803</v>
-      </c>
-      <c r="C13" t="n">
-        <v>32048.4651876412</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26893.0589907511</v>
-      </c>
-      <c r="E13" t="n">
-        <v>38632.1039082999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>37121.8805813681</v>
-      </c>
-      <c r="C14" t="n">
-        <v>33380.693355217</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26475.3661393902</v>
-      </c>
-      <c r="E14" t="n">
-        <v>38992.7470745452</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>37558.624346386</v>
-      </c>
-      <c r="C15" t="n">
-        <v>32992.302362083</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26224.2582513097</v>
-      </c>
-      <c r="E15" t="n">
-        <v>39617.2275523856</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>37933.0392454836</v>
-      </c>
-      <c r="C16" t="n">
-        <v>32351.9455280966</v>
-      </c>
-      <c r="D16" t="n">
-        <v>25893.817337943</v>
-      </c>
-      <c r="E16" t="n">
-        <v>40465.0819189428</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>38706.7016490743</v>
-      </c>
-      <c r="C17" t="n">
-        <v>34331.6528513914</v>
-      </c>
-      <c r="D17" t="n">
-        <v>26177.0606746299</v>
-      </c>
-      <c r="E17" t="n">
-        <v>41058.6827757951</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>39247.6828701833</v>
-      </c>
-      <c r="C18" t="n">
-        <v>35337.444435664</v>
-      </c>
-      <c r="D18" t="n">
-        <v>26456.0489842756</v>
-      </c>
-      <c r="E18" t="n">
-        <v>41551.9646099424</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>38367.0847689626</v>
-      </c>
-      <c r="C19" t="n">
-        <v>34986.6131487154</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25509.0161174254</v>
-      </c>
-      <c r="E19" t="n">
         <v>40539.9461778595</v>
       </c>
     </row>
